--- a/grupoetra/UC2.1 Network real-time monitoring.xlsx
+++ b/grupoetra/UC2.1 Network real-time monitoring.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t xml:space="preserve">1 Description of the use case</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Short description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network real-time monitoring with more POWER</t>
   </si>
   <si>
     <t xml:space="preserve">Complete description</t>
@@ -853,19 +850,19 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="106.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="7" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,57 +1020,57 @@
         <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="129.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="12"/>
@@ -1081,235 +1078,235 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14"/>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14"/>
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
       <c r="B41" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="8"/>
     </row>
@@ -1320,28 +1317,28 @@
     </row>
     <row r="60" customFormat="false" ht="24.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="8" t="n">
         <v>1</v>
@@ -1356,128 +1353,128 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="E63" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="D65" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="D66" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="D67" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="D68" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="G70" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="I70" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="J70" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" s="8" t="n">
         <v>1</v>
@@ -1507,37 +1504,37 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="E72" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="F72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G72" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="H72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="J72" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="8"/>
       <c r="F73" s="8"/>
@@ -1546,37 +1543,37 @@
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="E74" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="F74" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="H74" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="J74" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="8"/>
       <c r="F75" s="8"/>
@@ -1585,79 +1582,79 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="E76" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="F76" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="H76" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J76" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14"/>
       <c r="B78" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15"/>
       <c r="B79" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="8" t="n">
         <v>1</v>
@@ -1691,31 +1688,31 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="C81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" s="8"/>
     </row>
@@ -1726,45 +1723,45 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C91" s="19"/>
     </row>
@@ -1775,17 +1772,17 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="C93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="20"/>
       <c r="B94" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="8"/>
     </row>
@@ -1796,23 +1793,23 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="C96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="20"/>
       <c r="B97" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" s="19"/>
     </row>
@@ -1841,29 +1838,29 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/grupoetra/UC2.1 Network real-time monitoring.xlsx
+++ b/grupoetra/UC2.1 Network real-time monitoring.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlacort\Documents\ETRA\Proyectos\BRIDGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acs-mmi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BF89B2-4347-4DF6-BF48-8CAEC3528F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IEC62559-2" sheetId="1" r:id="rId1"/>
@@ -337,9 +336,6 @@
     <t>Diagram type</t>
   </si>
   <si>
-    <t>UC2.1</t>
-  </si>
-  <si>
     <t>Network real-time monitoring</t>
   </si>
   <si>
@@ -454,11 +450,14 @@
   <si>
     <t>werwer</t>
   </si>
+  <si>
+    <t>UC2.1 Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -763,8 +762,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1143,11 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1256,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1267,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1286,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1304,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,7 +1452,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,14 +1476,14 @@
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="8"/>
     </row>
@@ -1656,13 +1655,13 @@
         <v>60</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
         <v>124</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>125</v>
-      </c>
-      <c r="E63" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,13 +1677,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,13 +1692,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1708,13 +1707,13 @@
         <v>64</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,13 +1722,13 @@
         <v>65</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -1747,28 +1746,28 @@
         <v>68</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
         <v>124</v>
       </c>
-      <c r="E70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="J70" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -1807,28 +1806,28 @@
         <v>70</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" t="s">
         <v>117</v>
       </c>
-      <c r="E72" t="s">
-        <v>118</v>
-      </c>
       <c r="F72" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,28 +1845,28 @@
         <v>72</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" t="s">
         <v>119</v>
       </c>
-      <c r="E74" t="s">
-        <v>120</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -1885,28 +1884,28 @@
         <v>74</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
         <v>115</v>
       </c>
-      <c r="D76" t="s">
-        <v>116</v>
-      </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G76" t="s">
         <v>115</v>
       </c>
-      <c r="G76" t="s">
-        <v>116</v>
-      </c>
       <c r="H76" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I76" t="s">
         <v>115</v>
       </c>
-      <c r="I76" t="s">
-        <v>116</v>
-      </c>
       <c r="J76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -1916,15 +1915,15 @@
       </c>
       <c r="C77" s="8"/>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1934,21 +1933,21 @@
       </c>
       <c r="C78" s="8"/>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2120,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/grupoetra/UC2.1 Network real-time monitoring.xlsx
+++ b/grupoetra/UC2.1 Network real-time monitoring.xlsx
@@ -451,7 +451,7 @@
     <t>werwer</t>
   </si>
   <si>
-    <t>UC2.1 Test</t>
+    <t>UC2.1</t>
   </si>
 </sst>
 </file>
